--- a/Prototype/prototype/forecasts/ForecastResult2017.xlsx
+++ b/Prototype/prototype/forecasts/ForecastResult2017.xlsx
@@ -924,28 +924,53 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>1161</v>
+        <v>514</v>
+      </c>
+      <c r="C24" s="1">
+        <v>514</v>
+      </c>
+      <c r="D24" s="1">
+        <v>514</v>
+      </c>
+      <c r="E24" s="1">
+        <v>514</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>5852</v>
+        <v>10693</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10693</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10693</v>
+      </c>
+      <c r="K24" s="1">
+        <v>10693</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>6794</v>
+        <v>10559</v>
+      </c>
+      <c r="O24" s="1">
+        <v>10559</v>
+      </c>
+      <c r="P24" s="1">
+        <v>10559</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>10559</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>2686</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
         <v>2686</v>
       </c>
@@ -958,32 +983,28 @@
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>6452</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>6452</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>6452</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>6452</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>17331</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>17331</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>17331</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>17331</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1809,66 +1830,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>421</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>4000</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>1684</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2694,66 +2736,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>1127</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>3904</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>4400</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>282</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>282</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>282</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>282</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>4422</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>4422</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>4422</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>4422</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>1247</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>1247</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>1247</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>1247</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4302,66 +4365,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>5287</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>38</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>38</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>38</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>38</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>4185</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>4185</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>4185</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>4185</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>159</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>159</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>159</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>159</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -5187,66 +5271,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>4636</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>862</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>67</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>67</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>67</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>67</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>3752</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>3752</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>3752</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>3752</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>251</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>251</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>251</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>251</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -6072,66 +6177,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>279</v>
+        <v>566</v>
+      </c>
+      <c r="C24" s="1">
+        <v>566</v>
+      </c>
+      <c r="D24" s="1">
+        <v>566</v>
+      </c>
+      <c r="E24" s="1">
+        <v>566</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>4161</v>
+        <v>5974</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5974</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5974</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5974</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>1161</v>
+        <v>31381</v>
+      </c>
+      <c r="O24" s="1">
+        <v>31381</v>
+      </c>
+      <c r="P24" s="1">
+        <v>31381</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>31381</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>294</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>294</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>294</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>294</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>3518</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>3518</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>3518</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>3518</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>1034</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>1034</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>1034</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>1034</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -6957,66 +7083,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>100</v>
+        <v>531</v>
+      </c>
+      <c r="C24" s="1">
+        <v>531</v>
+      </c>
+      <c r="D24" s="1">
+        <v>531</v>
+      </c>
+      <c r="E24" s="1">
+        <v>531</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>4273</v>
+        <v>16667</v>
+      </c>
+      <c r="I24" s="1">
+        <v>16667</v>
+      </c>
+      <c r="J24" s="1">
+        <v>16667</v>
+      </c>
+      <c r="K24" s="1">
+        <v>16667</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>427</v>
+        <v>917</v>
+      </c>
+      <c r="O24" s="1">
+        <v>917</v>
+      </c>
+      <c r="P24" s="1">
+        <v>917</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>917</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>111</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>111</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>111</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>111</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>3523</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>3523</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>3523</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>3523</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>391</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>391</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>391</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>391</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -7842,66 +7989,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>405</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>4064</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>1646</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>304</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>304</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>304</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>304</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>4855</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>4855</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>4855</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>4855</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>1476</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>1476</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>1476</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>1476</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -8729,16 +8897,43 @@
       <c r="B24" s="3">
         <v>0</v>
       </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8746,47 +8941,41 @@
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -9612,66 +9801,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>112</v>
+        <v>17583</v>
+      </c>
+      <c r="C24" s="1">
+        <v>17583</v>
+      </c>
+      <c r="D24" s="1">
+        <v>17583</v>
+      </c>
+      <c r="E24" s="1">
+        <v>17583</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>4510</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>505</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>479</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>479</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>479</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>479</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>6089</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>6089</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>6089</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>6089</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>2917</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>2917</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>2917</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>2917</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -11220,66 +11430,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>287</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>4424</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>1270</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>596</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>596</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>596</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>596</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>4938</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>4938</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>4938</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>4938</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>2943</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>2943</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>2943</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>2943</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -12105,66 +12336,87 @@
         <v>42704</v>
       </c>
       <c r="B24" s="3">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>42704</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>42704</v>
       </c>
       <c r="N24" s="3">
-        <v>266</v>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>42735</v>
       </c>
-      <c r="B25" s="3">
-        <v>165</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
-        <v>165</v>
+        <v>2686</v>
       </c>
       <c r="D25" s="2">
-        <v>165</v>
+        <v>2686</v>
       </c>
       <c r="E25" s="2">
-        <v>165</v>
+        <v>2686</v>
       </c>
       <c r="G25" s="4">
         <v>42735</v>
       </c>
-      <c r="H25" s="3">
-        <v>3210</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>3210</v>
+        <v>2686</v>
       </c>
       <c r="J25" s="2">
-        <v>3210</v>
+        <v>2686</v>
       </c>
       <c r="K25" s="2">
-        <v>3210</v>
+        <v>2686</v>
       </c>
       <c r="M25" s="4">
         <v>42735</v>
       </c>
-      <c r="N25" s="3">
-        <v>530</v>
-      </c>
+      <c r="N25" s="3"/>
       <c r="O25" s="3">
-        <v>530</v>
+        <v>2686</v>
       </c>
       <c r="P25" s="2">
-        <v>530</v>
+        <v>2686</v>
       </c>
       <c r="Q25" s="2">
-        <v>530</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:18">
